--- a/data/harbor.xlsx
+++ b/data/harbor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\数学建模\2026MCM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2BBB72-73E3-4841-97B6-D593EB286B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2ABC411-87DD-47FD-8CF2-21D2614CDFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -458,7 +458,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -485,42 +485,42 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1500</v>
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>800</v>
       </c>
       <c r="F2">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E3">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="F3">
-        <v>1.1000000000000001</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -545,145 +545,148 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>300</v>
+        <v>6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1500</v>
       </c>
       <c r="F5">
-        <v>1.1499999999999999</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="F6">
-        <v>1.6</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F7">
-        <v>1.25</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E8">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="F8">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E9">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="F9">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="F10">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F11">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F11">
+    <sortCondition ref="F1:F11"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
